--- a/medicine/Mort/Cimetière_du_Borgel/Cimetière_du_Borgel.xlsx
+++ b/medicine/Mort/Cimetière_du_Borgel/Cimetière_du_Borgel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Borgel</t>
+          <t>Cimetière_du_Borgel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière du Borgel est le cimetière juif de Tunis depuis 1894. Le cimetière chrétien ouvert en 1927 lui est contigu.
-Situé sur l'avenue Kheireddine-Pacha du côté de l'esplanade Gambetta[1], il constituerait le plus grand cimetière juif du Maghreb, voire du bassin méditerranéen, en raison de la taille de la communauté juive locale, même si le nombre exact de tombes n'est pas déterminé à ce jour.
+Situé sur l'avenue Kheireddine-Pacha du côté de l'esplanade Gambetta, il constituerait le plus grand cimetière juif du Maghreb, voire du bassin méditerranéen, en raison de la taille de la communauté juive locale, même si le nombre exact de tombes n'est pas déterminé à ce jour.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Borgel</t>
+          <t>Cimetière_du_Borgel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Cimetière juif</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière juif est inauguré en 1894 par le grand-rabbin de Tunisie, Élie Borgel. Décédé en 1898 et inhumé dans ce même cimetière, celui-ci lui a donné son nom. Le cimetière juif se divise en deux parties divisées par un mur mais communiquant l'une avec l'autre ; l'une regroupe les Juifs d'origine tunisienne (Twânsa), l'autre les Juifs d'origine européenne (Granas). Le terrain reste à ce jour la propriété de la communauté juive de Tunis dirigée par Roger Bismuth.
 Le cimetière juif regroupe plus de 20 000 tombes, réparties sur 24 carrés portant les noms de personnalités célèbres, dont celles de plusieurs grands-rabbins.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Borgel</t>
+          <t>Cimetière_du_Borgel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +563,12 @@
           <t>Cimetière chrétien</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Propriété de la ville de Tunis et limitrophe du cimetière juif, le cimetière chrétien a notamment remplacé celui du Belvédère qui se trouvait à Bab El Khadra et qui fut fermé en 1979. La fermeture de plusieurs cimetières à travers le pays a conduit au rapatriement de certaines tombes. Récemment, le Conseil municipal de la ville de Bouficha a décidé en juillet 2003 la fermeture de son cimetière chrétien et le transfert des dépouilles mortelles au Borgel[2]. En août 2004, c'est au Conseil municipal de la ville de Medjez el-Bab de prendre la même décision[3].
-Un chantier de réhabilitation, l'une des premières opérations de ce type en Tunisie, est lancé en juillet 2007 et financé par la prélature de Tunis[4]. Il doit durer trois ans et concerne la réhabilitation des tombes, l'entretien et le nettoyage du cimetière.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Propriété de la ville de Tunis et limitrophe du cimetière juif, le cimetière chrétien a notamment remplacé celui du Belvédère qui se trouvait à Bab El Khadra et qui fut fermé en 1979. La fermeture de plusieurs cimetières à travers le pays a conduit au rapatriement de certaines tombes. Récemment, le Conseil municipal de la ville de Bouficha a décidé en juillet 2003 la fermeture de son cimetière chrétien et le transfert des dépouilles mortelles au Borgel. En août 2004, c'est au Conseil municipal de la ville de Medjez el-Bab de prendre la même décision.
+Un chantier de réhabilitation, l'une des premières opérations de ce type en Tunisie, est lancé en juillet 2007 et financé par la prélature de Tunis. Il doit durer trois ans et concerne la réhabilitation des tombes, l'entretien et le nettoyage du cimetière.
 </t>
         </is>
       </c>
